--- a/workfile/锐安项目文档/bi/bi目录.xlsx
+++ b/workfile/锐安项目文档/bi/bi目录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="88">
   <si>
     <t>bi目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>财务报表（含13期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损益表（包含13期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35，36_数据核对表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度行业业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度行业业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度一级部门行业业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度解决方案的经理行业业绩-个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度解决方案的经理行业业绩-个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度确认收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度确认收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度事业群确认收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度各一级代表处确认收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度事业群确认收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度二级部门确认收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购供应商分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">存在问题 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>损益表分析（事业群及代表处-包含13期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,14 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财务报表（含13期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>损益表（包含13期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资产负债表（包含13期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年度确认收入明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,30 +274,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35，36_数据核对表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季度行业业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度行业业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>季度事业群行业业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>季度一级部门行业业绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>季度二级部门行业业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>季度解决方案的经理行业业绩-个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年度事业群行业业绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,30 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年度解决方案的经理行业业绩-个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季度确认收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度确认收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季度事业群确认收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>季度一级部门确认收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,22 +314,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>季度各一级代表处确认收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度事业群确认收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年度一级部门确认收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年度二级部门确认收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年度代表处确认收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,7 +326,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购分析</t>
+    <t>业绩回款合同总额，人力资源源数据相关问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩回款源数据相关问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于现有源无问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源源数据相关问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源确认且数据无误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,19 +350,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购供应商分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级目录</t>
+    <t>基于现有源无问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析事业群级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析一级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于现有源无问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析二级部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +409,20 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -399,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +477,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D55"/>
+  <dimension ref="B1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,40 +776,47 @@
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
     <col min="4" max="4" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -745,8 +824,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -754,8 +836,11 @@
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -763,8 +848,11 @@
         <v>8</v>
       </c>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -772,8 +860,11 @@
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -781,8 +872,11 @@
         <v>5</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -790,8 +884,11 @@
         <v>6</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -799,8 +896,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -808,8 +908,11 @@
         <v>11</v>
       </c>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -817,8 +920,11 @@
         <v>12</v>
       </c>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -826,8 +932,11 @@
         <v>14</v>
       </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -835,8 +944,11 @@
         <v>15</v>
       </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -844,8 +956,11 @@
         <v>17</v>
       </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -853,8 +968,11 @@
         <v>19</v>
       </c>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -862,8 +980,11 @@
         <v>20</v>
       </c>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -871,8 +992,11 @@
         <v>21</v>
       </c>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
@@ -880,8 +1004,11 @@
         <v>22</v>
       </c>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
@@ -889,10 +1016,13 @@
         <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
@@ -900,21 +1030,27 @@
         <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
@@ -922,10 +1058,13 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
@@ -933,10 +1072,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
@@ -944,10 +1086,13 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
@@ -955,10 +1100,13 @@
         <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
@@ -966,10 +1114,13 @@
         <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
@@ -977,277 +1128,391 @@
         <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E51" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D55" s="2"/>
+      <c r="E55" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/workfile/锐安项目文档/bi/bi目录.xlsx
+++ b/workfile/锐安项目文档/bi/bi目录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="89">
   <si>
     <t>bi目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,55 +326,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>业绩回款源数据相关问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于现有源无问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源源数据相关问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源确认且数据无误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购项目分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于现有源无问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析事业群级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析一级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于现有源无问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析二级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>业绩回款合同总额，人力资源源数据相关问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>业绩回款源数据相关问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于现有源无问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力资源源数据相关问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源确认且数据无误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购项目分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于现有源无问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发分析事业群级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发分析一级部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于现有源无问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发分析二级部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,14 +479,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E58"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,11 +785,11 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:5" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
@@ -812,8 +816,8 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
-        <v>75</v>
+      <c r="E5" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -824,8 +828,8 @@
         <v>3</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>76</v>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -836,8 +840,8 @@
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="4" t="s">
-        <v>76</v>
+      <c r="E7" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -848,8 +852,8 @@
         <v>8</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
-        <v>76</v>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -860,8 +864,8 @@
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
-        <v>77</v>
+      <c r="E9" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -872,8 +876,8 @@
         <v>5</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="5" t="s">
-        <v>77</v>
+      <c r="E10" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -884,8 +888,8 @@
         <v>6</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="5" t="s">
-        <v>77</v>
+      <c r="E11" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -896,8 +900,8 @@
         <v>10</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
-        <v>77</v>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -908,8 +912,8 @@
         <v>11</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="5" t="s">
-        <v>77</v>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -920,8 +924,8 @@
         <v>12</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
-        <v>77</v>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -932,8 +936,8 @@
         <v>14</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="4" t="s">
-        <v>78</v>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -944,8 +948,8 @@
         <v>15</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="4" t="s">
-        <v>78</v>
+      <c r="E16" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -957,7 +961,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -969,7 +973,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -981,7 +985,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -993,7 +997,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1005,7 +1009,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1019,7 +1023,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1033,7 +1037,7 @@
         <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1047,7 +1051,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1061,7 +1065,7 @@
         <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1075,7 +1079,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1089,7 +1093,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1103,7 +1107,7 @@
         <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1117,7 +1121,7 @@
         <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1131,7 +1135,7 @@
         <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1145,7 +1149,7 @@
         <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1159,7 +1163,7 @@
         <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1171,7 +1175,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1185,7 +1189,7 @@
         <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1199,7 +1203,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1213,7 +1217,7 @@
         <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1227,7 +1231,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1241,7 +1245,7 @@
         <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1255,7 +1259,7 @@
         <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1269,7 +1273,7 @@
         <v>66</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1283,7 +1287,7 @@
         <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1297,7 +1301,7 @@
         <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1311,7 +1315,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1325,7 +1329,7 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1339,7 +1343,7 @@
         <v>69</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1353,7 +1357,7 @@
         <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1367,7 +1371,7 @@
         <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1381,7 +1385,7 @@
         <v>43</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1395,7 +1399,7 @@
         <v>44</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1409,7 +1413,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1423,7 +1427,7 @@
         <v>45</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1437,7 +1441,7 @@
         <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1451,7 +1455,7 @@
         <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1459,11 +1463,11 @@
         <v>46</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1474,44 +1478,44 @@
         <v>47</v>
       </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="5" t="s">
-        <v>81</v>
+      <c r="E55" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="5" t="s">
-        <v>81</v>
+      <c r="E56" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="5" t="s">
-        <v>81</v>
+      <c r="E58" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
